--- a/medicine/Enfance/Bonjour_Madame_Croque_Cerise/Bonjour_Madame_Croque_Cerise.xlsx
+++ b/medicine/Enfance/Bonjour_Madame_Croque_Cerise/Bonjour_Madame_Croque_Cerise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bonjour Madame Croque-Cerise est émission de télévision québécoise pour enfants de trois à cinq ans en 104 épisodes de 27 minutes diffusée du 12 septembre 1999 à 2003 sur Télé-Québec.
-Il s'agit d'une adaptation de l'émission canadienne Hello Mrs. Cherrywinkle (en) diffusée sur Family[1].
+Il s'agit d'une adaptation de l'émission canadienne Hello Mrs. Cherrywinkle (en) diffusée sur Family.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Action comique ou dramatique, marionnettes, chansons, une histoire, bricolage, etc.
 </t>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Catherine Pinard : Madame Croque-Cerise
 Claude Prégent : Capitaine Archipel
@@ -577,7 +593,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Producteur : André Lauzon
 Producteurs exécutifs : Michel Bissonnette, Paul Dupont-Hébert, André Larin, Vincent Leduc
